--- a/public/temp/gear.xlsx
+++ b/public/temp/gear.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\longbien\public\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSPanel\domains\longbien\public\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Danh sách đồ dùng phục vụ công tác giảng dạy</t>
   </si>
@@ -44,10 +44,6 @@
   <si>
     <t>Mô tả
 (Mô tả về đồ dùng, mục đích, cấu tạo, ….)</t>
-  </si>
-  <si>
-    <t>Số lượng
-(Là dạng số, là số lượng tồn kho của đồ dùng có khả năng cho mượn)</t>
   </si>
   <si>
     <t>Quả  cầu vật lý</t>
@@ -192,12 +188,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -208,6 +198,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -490,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -502,373 +498,310 @@
     <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" s="2" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>12345678</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8">
-        <v>12345678</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>12345679</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>12345680</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8">
-        <v>12345679</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B8" s="6">
+        <v>12345681</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>12345682</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6">
+        <v>12345683</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6">
+        <v>12345684</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="8">
-        <v>12345680</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B12" s="6">
+        <v>12345685</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="8">
-        <v>12345681</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B13" s="6">
+        <v>12345686</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8">
-        <v>12345682</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B14" s="6">
+        <v>12345687</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>11</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8">
-        <v>12345683</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B15" s="6">
+        <v>12345688</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8">
-        <v>12345684</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B16" s="6">
+        <v>12345689</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>13</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8">
-        <v>12345685</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B17" s="6">
+        <v>12345690</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>14</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8">
-        <v>12345686</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B18" s="6">
+        <v>12345691</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>15</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>10</v>
-      </c>
-      <c r="B14" s="8">
-        <v>12345687</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B19" s="6">
+        <v>12345692</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>11</v>
-      </c>
-      <c r="B15" s="8">
-        <v>12345688</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B20" s="6">
+        <v>12345693</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>17</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>12</v>
-      </c>
-      <c r="B16" s="8">
-        <v>12345689</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B21" s="6">
+        <v>12345694</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>18</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8">
-        <v>12345690</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B22" s="6">
+        <v>12345695</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>19</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>14</v>
-      </c>
-      <c r="B18" s="8">
-        <v>12345691</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8">
-        <v>12345692</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>16</v>
-      </c>
-      <c r="B20" s="8">
-        <v>12345693</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>17</v>
-      </c>
-      <c r="B21" s="8">
-        <v>12345694</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>18</v>
-      </c>
-      <c r="B22" s="8">
-        <v>12345695</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B23" s="6">
+        <v>12345696</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>19</v>
-      </c>
-      <c r="B23" s="8">
-        <v>12345696</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="8">
-        <v>4</v>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
